--- a/pc방 기능 명세서.xlsx
+++ b/pc방 기능 명세서.xlsx
@@ -13,11 +13,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3월1일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품결제방법을 선택하고 주문시 요청사항이 있을 경우 입력 후 주문하기버튼을 누르면 주문이 완료된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,6 +243,18 @@
   </si>
   <si>
     <t>인기메뉴,덮밥류,면류,버거류,음료들로 구성되어있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월4일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월4일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1279,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:I14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1359,13 +1368,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
@@ -1373,13 +1382,17 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
       <c r="J4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="L4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:19">
@@ -1399,7 +1412,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M5" s="15"/>
     </row>
@@ -1420,7 +1433,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M6" s="15"/>
     </row>
@@ -1443,7 +1456,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="18"/>
       <c r="L7" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="33"/>
@@ -1460,7 +1473,7 @@
       <c r="B8" s="39"/>
       <c r="C8" s="28"/>
       <c r="D8" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
@@ -1470,7 +1483,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="18"/>
       <c r="L8" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="34"/>
@@ -1497,7 +1510,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="34"/>
@@ -1526,7 +1539,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="34"/>
@@ -1543,7 +1556,7 @@
       <c r="B11" s="39"/>
       <c r="C11" s="30"/>
       <c r="D11" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -1553,7 +1566,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M11" s="16"/>
     </row>
@@ -1564,7 +1577,7 @@
       <c r="B12" s="39"/>
       <c r="C12" s="31"/>
       <c r="D12" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -1574,7 +1587,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M12" s="16"/>
     </row>
@@ -1597,7 +1610,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" s="15"/>
     </row>
@@ -1622,7 +1635,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M14" s="16"/>
     </row>
@@ -1643,7 +1656,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="8"/>
@@ -1669,7 +1682,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="8"/>
@@ -1693,7 +1706,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -1708,11 +1721,11 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18" s="27"/>
       <c r="L18" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M18" s="16"/>
     </row>

--- a/pc방 기능 명세서.xlsx
+++ b/pc방 기능 명세서.xlsx
@@ -13,12 +13,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +254,10 @@
   </si>
   <si>
     <t>1시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월5일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1288,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1409,7 +1412,9 @@
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="K5" s="10"/>
       <c r="L5" s="15" t="s">
         <v>45</v>

--- a/pc방 기능 명세서.xlsx
+++ b/pc방 기능 명세서.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,11 +253,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3월5일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월9일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4일(14시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일(1시간)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1291,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1394,7 +1402,7 @@
         <v>44</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N4" s="17"/>
     </row>
@@ -1413,13 +1421,17 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="10"/>
       <c r="L5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="15"/>
+      <c r="M5" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="4">

--- a/pc방 기능 명세서.xlsx
+++ b/pc방 기능 명세서.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,18 @@
   </si>
   <si>
     <t>1일(1시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월11일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월11일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일(1시간30분)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,13 +587,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -592,51 +649,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1268,11 +1280,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A1:H2"/>
@@ -1281,14 +1296,11 @@
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1312,34 +1324,34 @@
     <col min="10" max="10" width="15.5" customWidth="1"/>
     <col min="11" max="11" width="14.875" customWidth="1"/>
     <col min="12" max="12" width="14.5" style="5" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="16.875" style="5" customWidth="1"/>
     <col min="19" max="19" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
@@ -1353,14 +1365,14 @@
       <c r="C3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="10" t="s">
         <v>31</v>
       </c>
@@ -1378,20 +1390,20 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="13" t="s">
         <v>56</v>
       </c>
@@ -1410,16 +1422,16 @@
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="10" t="s">
         <v>58</v>
       </c>
@@ -1433,153 +1445,159 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" ht="33">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="37" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="L6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="15"/>
+      <c r="M6" s="15" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="27"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="20"/>
       <c r="K7" s="18"/>
       <c r="L7" s="16" t="s">
         <v>47</v>
       </c>
       <c r="M7" s="16"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="26" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="27"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="20"/>
       <c r="K8" s="18"/>
       <c r="L8" s="16" t="s">
         <v>47</v>
       </c>
       <c r="M8" s="16"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="16" t="s">
         <v>44</v>
       </c>
       <c r="M9" s="16"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="16" t="s">
         <v>48</v>
       </c>
       <c r="M10" s="16"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="28" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="16" t="s">
@@ -1591,16 +1609,16 @@
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="28" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="16" t="s">
@@ -1612,18 +1630,18 @@
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="15" t="s">
@@ -1635,20 +1653,20 @@
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="16" t="s">
@@ -1660,16 +1678,16 @@
       <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="28" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="16" t="s">
@@ -1684,18 +1702,18 @@
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="45" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="16" t="s">
@@ -1710,16 +1728,16 @@
       <c r="A17" s="19">
         <v>14</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="28" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="16" t="s">
@@ -1731,16 +1749,16 @@
       <c r="A18" s="19"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="26" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="27"/>
+      <c r="K18" s="43"/>
       <c r="L18" s="16" t="s">
         <v>50</v>
       </c>
@@ -1772,6 +1790,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="B4:B13"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="D17:I17"/>
@@ -1781,26 +1819,6 @@
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N10:S10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D18:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pc방 기능 명세서.xlsx
+++ b/pc방 기능 명세서.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,10 +274,6 @@
   </si>
   <si>
     <t>3월11일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1일(1시간30분)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,28 +583,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -626,29 +625,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1280,6 +1276,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="C16:H16"/>
@@ -1288,19 +1297,6 @@
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1311,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1329,29 +1325,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
@@ -1365,14 +1361,14 @@
       <c r="C3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="10" t="s">
         <v>31</v>
       </c>
@@ -1390,20 +1386,20 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="13" t="s">
         <v>56</v>
       </c>
@@ -1422,16 +1418,16 @@
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="10" t="s">
         <v>58</v>
       </c>
@@ -1445,20 +1441,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="33">
+    <row r="6" spans="1:19">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="36" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="11" t="s">
         <v>62</v>
       </c>
@@ -1469,135 +1465,135 @@
         <v>46</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="20"/>
       <c r="K7" s="18"/>
       <c r="L7" s="16" t="s">
         <v>47</v>
       </c>
       <c r="M7" s="16"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="41" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="20"/>
       <c r="K8" s="18"/>
       <c r="L8" s="16" t="s">
         <v>47</v>
       </c>
       <c r="M8" s="16"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="16" t="s">
         <v>44</v>
       </c>
       <c r="M9" s="16"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="44" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="16" t="s">
         <v>48</v>
       </c>
       <c r="M10" s="16"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="29" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="16" t="s">
@@ -1609,16 +1605,16 @@
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="29" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="16" t="s">
@@ -1630,18 +1626,18 @@
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="15" t="s">
@@ -1653,20 +1649,20 @@
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="16" t="s">
@@ -1678,16 +1674,16 @@
       <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="29" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="16" t="s">
@@ -1702,18 +1698,18 @@
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="16" t="s">
@@ -1728,16 +1724,16 @@
       <c r="A17" s="19">
         <v>14</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="29" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="16" t="s">
@@ -1749,16 +1745,16 @@
       <c r="A18" s="19"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="41" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="43"/>
+      <c r="K18" s="27"/>
       <c r="L18" s="16" t="s">
         <v>50</v>
       </c>
@@ -1790,11 +1786,21 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="B4:B13"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
     <mergeCell ref="N9:S9"/>
@@ -1804,21 +1810,11 @@
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="D9:I9"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D18:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pc방 기능 명세서.xlsx
+++ b/pc방 기능 명세서.xlsx
@@ -13,11 +13,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +275,18 @@
   </si>
   <si>
     <t>3월11일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월15일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월13일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월31일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,16 +593,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -600,51 +664,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,26 +1007,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
@@ -1016,193 +1035,193 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
@@ -1213,74 +1232,77 @@
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
         <v>5</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A1:H2"/>
@@ -1289,14 +1311,11 @@
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1307,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1325,29 +1344,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
@@ -1361,14 +1380,14 @@
       <c r="C3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="10" t="s">
         <v>31</v>
       </c>
@@ -1386,20 +1405,20 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="13" t="s">
         <v>56</v>
       </c>
@@ -1418,16 +1437,16 @@
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="10" t="s">
         <v>58</v>
       </c>
@@ -1445,16 +1464,16 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="37" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="11" t="s">
         <v>62</v>
       </c>
@@ -1472,128 +1491,134 @@
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="18"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="L7" s="16" t="s">
         <v>47</v>
       </c>
       <c r="M7" s="16"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="26" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="27"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="20"/>
       <c r="K8" s="18"/>
       <c r="L8" s="16" t="s">
         <v>47</v>
       </c>
       <c r="M8" s="16"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="16" t="s">
         <v>44</v>
       </c>
       <c r="M9" s="16"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="18"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="K10" s="18"/>
       <c r="L10" s="16" t="s">
         <v>48</v>
       </c>
       <c r="M10" s="16"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="28" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="16" t="s">
@@ -1605,16 +1630,16 @@
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="28" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="16" t="s">
@@ -1626,18 +1651,18 @@
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="15" t="s">
@@ -1649,20 +1674,20 @@
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="16" t="s">
@@ -1674,16 +1699,16 @@
       <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="28" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="16" t="s">
@@ -1698,18 +1723,18 @@
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="45" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="16" t="s">
@@ -1724,16 +1749,16 @@
       <c r="A17" s="19">
         <v>14</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="28" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="16" t="s">
@@ -1745,16 +1770,16 @@
       <c r="A18" s="19"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="26" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="27"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="16" t="s">
         <v>50</v>
       </c>
@@ -1786,6 +1811,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="B4:B13"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="D17:I17"/>
@@ -1795,26 +1840,6 @@
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N10:S10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D18:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
